--- a/biology/Botanique/Quinta_da_Bacalhoa/Quinta_da_Bacalhoa.xlsx
+++ b/biology/Botanique/Quinta_da_Bacalhoa/Quinta_da_Bacalhoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La quinta da Bacalhoa est une propriété agricole portugaise située à Vila Fresca de Azeitão, dans la municipalité de Setúbal. Ancienne propriété de la famille royale du Portugal, remontant au XVe siècle, elle est aujourd'hui connue comme un important domaine viticole.
@@ -512,14 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1427, Jean, fils du roi Jean Ier, fit construire des maisons dans un domaine à Azeitão. En 1528, le domaine passa à Brás de Albuquerque, ministre des Finances et président du Sénat de Lisbonne, qui y fit construire un palais dans le style Renaissance, probablement par Francisco de Arruda[1].
-Dans les années 1960, la Quinta da Bacalhoa fut achetée et restaurée par une Américaine, Ornella Scoville[2].
-Elle appartient depuis 1998 à la fondation créée par l'un des hommes les plus riches du Portugal, José Berardo[2].
-En 1996, le domaine a été désigné comme Monument national par l'Instituto Português do Património Arquitetónico[1].
-Toponymie
-Le nom de Bacalhoa serait une déformation de «Bacalhau» («morue» en portugais), surnom de l'un de ses propriétaires de la fin du XVIe siècle, Jerónimo Manuel. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1427, Jean, fils du roi Jean Ier, fit construire des maisons dans un domaine à Azeitão. En 1528, le domaine passa à Brás de Albuquerque, ministre des Finances et président du Sénat de Lisbonne, qui y fit construire un palais dans le style Renaissance, probablement par Francisco de Arruda.
+Dans les années 1960, la Quinta da Bacalhoa fut achetée et restaurée par une Américaine, Ornella Scoville.
+Elle appartient depuis 1998 à la fondation créée par l'un des hommes les plus riches du Portugal, José Berardo.
+En 1996, le domaine a été désigné comme Monument national par l'Instituto Português do Património Arquitetónico.
 </t>
         </is>
       </c>
@@ -545,12 +557,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Toponymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de Bacalhoa serait une déformation de «Bacalhau» («morue» en portugais), surnom de l'un de ses propriétaires de la fin du XVIe siècle, Jerónimo Manuel. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Quinta_da_Bacalhoa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quinta_da_Bacalhoa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Viticulture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'activité viticole du domaine remonte à 1922, sous le nom de João Pires &amp; Filhos. Dans les années 1970, un important investissement dans des procédés modernes de production lui a permis de devenir l'un des principaux producteurs de vin de la région[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'activité viticole du domaine remonte à 1922, sous le nom de João Pires &amp; Filhos. Dans les années 1970, un important investissement dans des procédés modernes de production lui a permis de devenir l'un des principaux producteurs de vin de la région.
 Le domaine produit des vins rouges, rosés, blancs et du moscatel.
 </t>
         </is>
